--- a/biology/Botanique/Square_des_arènes_de_Lutèce_et_square_Capitan/Square_des_arènes_de_Lutèce_et_square_Capitan.xlsx
+++ b/biology/Botanique/Square_des_arènes_de_Lutèce_et_square_Capitan/Square_des_arènes_de_Lutèce_et_square_Capitan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_des_ar%C3%A8nes_de_Lut%C3%A8ce_et_square_Capitan</t>
+          <t>Square_des_arènes_de_Lutèce_et_square_Capitan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square des arènes de Lutèce et square Capitan est un square du 5e arrondissement de Paris attenant aux arènes de Lutèce.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_des_ar%C3%A8nes_de_Lut%C3%A8ce_et_square_Capitan</t>
+          <t>Square_des_arènes_de_Lutèce_et_square_Capitan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible au 6, rue des Arènes.
 Il est desservi par les lignes 7 et 10 aux stations Jussieu et Place Monge.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_des_ar%C3%A8nes_de_Lut%C3%A8ce_et_square_Capitan</t>
+          <t>Square_des_arènes_de_Lutèce_et_square_Capitan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est nommé en l'honneur du médecin, anthropologue et préhistorien Louis Capitan (1854-1929)[1] et 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est nommé en l'honneur du médecin, anthropologue et préhistorien Louis Capitan (1854-1929) et 
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_des_ar%C3%A8nes_de_Lut%C3%A8ce_et_square_Capitan</t>
+          <t>Square_des_arènes_de_Lutèce_et_square_Capitan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est construit sur le site des anciens réservoirs Saint-Victor situés en contrebas des arènes, dont la découverte, en 1869, par Théodore Vacquer et la restauration par Louis Capitan (1854-1929), durant la Première Guerre mondiale, ont permis la réhabilitation. Le square de 12 168 m2 ouvert en 1892 est accessible par les arènes mais en est indépendant.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Square_des_ar%C3%A8nes_de_Lut%C3%A8ce_et_square_Capitan</t>
+          <t>Square_des_arènes_de_Lutèce_et_square_Capitan</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Arbre remarquable</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square abrite un hêtre tortillard (ou fau) planté en 1905.
 </t>
